--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fuck\git\danyuan-application\design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -22,15 +17,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$108</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="616">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1101,18 +1096,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>种子网站管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>规则</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>网络爬虫表结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>seed_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1209,10 +1196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请求操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1221,10 +1204,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar（10）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1233,18 +1212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>request_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>取内容规则</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1281,10 +1248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>spl1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1313,23 +1276,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar（500）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_url_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_uri</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配对网址段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1520,14 +1467,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_seed_ruler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_seed_ruler_colum_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ruler_uuid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1544,10 +1483,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>sys_seed_result_ruler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>唯一id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1629,10 +1564,6 @@
   </si>
   <si>
     <t>规则列id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1671,10 +1602,6 @@
   </si>
   <si>
     <t>colsSwitchable</t>
-  </si>
-  <si>
-    <t>规则组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>结果配置映射关系</t>
@@ -2620,11 +2547,299 @@
     <t>jdbc_uuid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误网址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get，post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于以后对表整理保留字段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">list ，还是detial 页面 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一层组id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（36）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（36）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识 netPage还是column，还是link</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_excute_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>success_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_msg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（2000）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅限于展示时好看的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集入口地址，入口地址很重要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页的字符集</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时用到的数据，可能使用，预留的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>excute_batch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义爬虫程序文件管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件包名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip_file_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是通用平台采集，还是执行上传的自定义采集程序,自定义采集程序将不会进入统计信息，需自己添加统计的内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络爬虫表结构，数据库表的管理与维护与推荐建议执行语句，统计信息，自定义图标展示页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终可能是表名称，需要好好起名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站任务管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务错误信息管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站采集入口管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次执行时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surplus_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计剩余采集数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集通用标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集出错数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>excute_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中，已停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（500）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的命令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_task_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_task_self_code_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_url_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_ruler_colum_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_result_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_task_err_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -3475,7 +3690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3510,7 +3725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4225,7 +4440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -4853,7 +5068,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>265</v>
@@ -5298,13 +5513,13 @@
         <v>194</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>195</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>138</v>
@@ -5342,7 +5557,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>265</v>
@@ -5380,7 +5595,7 @@
         <v>201</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>128</v>
@@ -5544,16 +5759,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G43" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
@@ -5577,15 +5792,15 @@
     <col min="23" max="23" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5596,2330 +5811,2796 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
+    <row r="3" spans="1:17" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1">
+    <row r="5" spans="1:17" s="1" customFormat="1">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:15" s="54" customFormat="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-    </row>
-    <row r="7" spans="1:15" s="32" customFormat="1">
-      <c r="A7" s="11" t="s">
+    <row r="6" spans="1:17" s="32" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="1" customFormat="1">
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:17" s="32" customFormat="1">
+      <c r="A12" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>569</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:16" s="32" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="B19" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="B20" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="B21" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="54" customFormat="1">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+    </row>
+    <row r="24" spans="1:16" s="32" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1"/>
+    <row r="30" spans="1:16" s="47" customFormat="1">
+      <c r="A30" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="B33" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="B34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="5" customFormat="1">
+      <c r="A36" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B36" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="O38" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="1" customFormat="1"/>
+    <row r="42" spans="1:18" s="3" customFormat="1">
+      <c r="A42" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="61" t="s">
+    </row>
+    <row r="43" spans="1:18">
+      <c r="B43" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="B44" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="B46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="1" customFormat="1"/>
+    <row r="48" spans="1:18" s="32" customFormat="1">
+      <c r="A48" s="32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="5" customFormat="1">
+      <c r="A49" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D49" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="B50" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>516</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="66" customFormat="1">
+      <c r="B51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="E51" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="F52" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="55" spans="1:15" s="61" customFormat="1">
+      <c r="A55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="B57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K57" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="L57" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O57" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="B58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O58" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1"/>
+    <row r="61" spans="1:15" s="61" customFormat="1">
+      <c r="A61" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="B62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="B63" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="B64" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L64" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="B65" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="67" spans="1:23" s="5" customFormat="1">
+      <c r="A67" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="B68" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I68" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" s="66" customFormat="1">
+      <c r="B69" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D69" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="H69" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="B70" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="B71" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="73" spans="1:23" s="5" customFormat="1">
+      <c r="A73" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="B74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="K74" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="L74" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="M74" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="P74" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q74" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T74" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U74" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="V74" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="W74" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" s="66" customFormat="1">
+      <c r="B75" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="J75" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K75" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="L75" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="N75" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="O75" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="P75" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q75" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="U75" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="W75" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="B76" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G76" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="K76" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="L76" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="M76" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="N76" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q76" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T76" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U76" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V76" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="W76" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="B77" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="49"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="79" spans="1:23" s="5" customFormat="1">
+      <c r="A79" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="B80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E80" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="F80" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="66" customFormat="1">
+      <c r="B81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>523</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="G81" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="H81" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="B82" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L82" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="85" spans="1:12" s="5" customFormat="1">
+      <c r="A85" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="B86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="B87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E87" s="28" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="F87" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="B88" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="B89" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="5" customFormat="1">
+      <c r="A91" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="D91" s="33"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="B92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="G92" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="H92" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="I92" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="J92" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="K92" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="48" t="s">
+      <c r="L92" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="B93" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="C93" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E93" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K9" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="O9" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="10" t="s">
+      <c r="G93" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="B94" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="C94" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="F94" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="G94" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="H94" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="I94" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="J94" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="K94" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="O10" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="s">
+      <c r="L94" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="B95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1"/>
-    <row r="13" spans="1:15" s="47" customFormat="1">
-      <c r="A13" s="52" t="s">
+    <row r="97" spans="1:21" s="5" customFormat="1">
+      <c r="A97" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="D97" s="33"/>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="B98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E98" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="J98" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="K98" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="L98" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="M98" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="O98" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R98" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T98" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="U98" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="B99" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="J99" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="B13" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="K99" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="L99" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="M99" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="N99" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="O99" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="P99" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q99" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="R99" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="T99" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="U99" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="B100" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="J100" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="K100" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N100" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P100" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q100" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R100" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T100" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U100" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="B101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" s="5" customFormat="1">
+      <c r="A103" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="D103" s="33"/>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="B104" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H104" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="I104" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J104" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K104" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L104" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M104" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="48" t="s">
+      <c r="N104" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="B105" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="C105" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H105" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="I105" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="10" t="s">
+      <c r="J105" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="B106" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="D106" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="F106" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J106" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K106" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L106" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M106" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N16" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="5" customFormat="1">
-      <c r="A19" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="N106" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q21" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="B22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q22" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="B23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1"/>
-    <row r="25" spans="1:17" s="3" customFormat="1">
-      <c r="A25" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="B27" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="B28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="B29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="1" customFormat="1"/>
-    <row r="31" spans="1:17" s="32" customFormat="1">
-      <c r="A31" s="32" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="5" customFormat="1">
-      <c r="A32" s="65" t="s">
-        <v>523</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>558</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="B33" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>536</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>535</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>537</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="66" customFormat="1">
-      <c r="B34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>527</v>
-      </c>
-      <c r="E34" s="67" t="s">
-        <v>530</v>
-      </c>
-      <c r="F34" s="67" t="s">
-        <v>528</v>
-      </c>
-      <c r="G34" s="67" t="s">
-        <v>529</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>531</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="B35" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="F35" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N35" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="B36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="38" spans="1:15" s="61" customFormat="1">
-      <c r="A38" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>510</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="B39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="B40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="L40" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M40" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="O40" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="B41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O41" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="B42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1"/>
-    <row r="44" spans="1:15" s="61" customFormat="1">
-      <c r="A44" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>508</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="B45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="B46" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="B47" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="B48" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="50" spans="1:23" s="5" customFormat="1">
-      <c r="A50" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>509</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="B51" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" s="66" customFormat="1">
-      <c r="B52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>353</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>516</v>
-      </c>
-      <c r="F52" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>518</v>
-      </c>
-      <c r="H52" s="67" t="s">
-        <v>519</v>
-      </c>
-      <c r="I52" s="67" t="s">
-        <v>520</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="O52" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
-      <c r="B53" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N53" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O53" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="B54" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="56" spans="1:23" s="5" customFormat="1">
-      <c r="A56" s="65" t="s">
-        <v>506</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="B57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="F57" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="J57" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="K57" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="L57" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="P57" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q57" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S57" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="T57" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="U57" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="V57" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="W57" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" s="66" customFormat="1">
-      <c r="B58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="E58" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="F58" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="K58" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="M58" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="N58" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="O58" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="P58" s="67" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q58" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="S58" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="T58" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="U58" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="V58" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="W58" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="B59" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="G59" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J59" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="K59" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="M59" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="N59" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="O59" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="P59" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q59" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="R59" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S59" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T59" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="U59" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V59" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="W59" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="B60" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="62" spans="1:23" s="5" customFormat="1">
-      <c r="A62" s="65" t="s">
-        <v>539</v>
-      </c>
-      <c r="B62" s="64" t="s">
-        <v>559</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="B63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="F63" s="48" t="s">
-        <v>548</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>548</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>549</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" s="66" customFormat="1">
-      <c r="B64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>542</v>
-      </c>
-      <c r="F64" s="48" t="s">
-        <v>543</v>
-      </c>
-      <c r="G64" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="H64" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="B65" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L65" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="B66" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="68" spans="1:12" s="5" customFormat="1">
-      <c r="A68" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>511</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="B69" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="B70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="B71" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="B72" s="9" t="s">
+    </row>
+    <row r="107" spans="1:21">
+      <c r="B107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="5" customFormat="1">
-      <c r="A74" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="B74" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="B75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="B76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="E76" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="B77" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="B78" s="9" t="s">
+      <c r="C107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="5" customFormat="1">
-      <c r="A80" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="B80" s="64" t="s">
-        <v>556</v>
-      </c>
-      <c r="D80" s="33"/>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="B81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="J81" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="K81" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="L81" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="M81" s="28" t="s">
-        <v>426</v>
-      </c>
-      <c r="N81" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="O81" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q81" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S81" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="T81" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="U81" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
-      <c r="B82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="J82" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="K82" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="L82" s="67" t="s">
-        <v>423</v>
-      </c>
-      <c r="M82" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="N82" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="O82" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="P82" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q82" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="R82" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="S82" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="T82" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="U82" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="B83" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="J83" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="K83" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="L83" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N83" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O83" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q83" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R83" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="S83" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T83" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="U83" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
-      <c r="B84" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" s="5" customFormat="1">
-      <c r="A86" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="B86" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="D86" s="33"/>
-    </row>
-    <row r="87" spans="1:21">
-      <c r="B87" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="H87" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M87" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N87" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
-      <c r="B88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="H88" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="K88" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="M88" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="N88" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
-      <c r="B89" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M89" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N89" s="28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
-      <c r="B90" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7934,8 +8615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7963,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -7971,10 +8652,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -7982,15 +8663,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -8002,13 +8683,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8016,10 +8697,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8027,7 +8708,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>7</v>
@@ -8049,7 +8730,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D11" s="68">
         <v>1</v>
@@ -8065,7 +8746,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -8103,7 +8784,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>22</v>
@@ -8114,7 +8795,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>24</v>
@@ -8138,7 +8819,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>31</v>
@@ -8202,7 +8883,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -8219,54 +8900,54 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="9" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -8289,10 +8970,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>32</v>
@@ -8324,7 +9005,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -8353,7 +9034,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>52</v>
@@ -8505,7 +9186,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -8558,7 +9239,7 @@
         <v>93</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -8608,10 +9289,10 @@
         <v>105</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -8664,7 +9345,7 @@
         <v>110</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -8699,7 +9380,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -8822,7 +9503,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:8">

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="621">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1100,78 +1100,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>seed_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seed_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>charset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请求时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符集</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(2000)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>链接地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站商标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(1000)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(1000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(36)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1180,10 +1120,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>seed_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>规则类别</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1241,10 +1177,6 @@
   </si>
   <si>
     <t>colum_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>roler</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1463,19 +1395,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>table_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ruler_uuid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ruler_colum_uuid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruler_colum_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2548,291 +2472,387 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>get，post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于以后对表整理保留字段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">list ，还是detial 页面 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一层组id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（36）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（36）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识 netPage还是column，还是link</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（50）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅限于展示时好看的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集入口地址，入口地址很重要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页的字符集</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时用到的数据，可能使用，预留的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义爬虫程序文件管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（200）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是通用平台采集，还是执行上传的自定义采集程序,自定义采集程序将不会进入统计信息，需自己添加统计的内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络爬虫表结构，数据库表的管理与维护与推荐建议执行语句，统计信息，自定义图标展示页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终可能是表名称，需要好好起名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站任务管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务错误信息管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站采集入口管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则组id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集出错数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中，已停止</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>discription</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_task_self_code_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_result_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_task_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_uuid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_msg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>任务id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>错误网址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误消息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>zip_file_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_url_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站商标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务错误信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义代码表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_excute_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>surplus_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计剩余采集数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次执行时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>success_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集通用标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>excute_flag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>excute_batch</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（500）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的命令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_task_err_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>任务id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>get，post</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于以后对表整理保留字段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">list ，还是detial 页面 </t>
+    <t>varchar（2000）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误网址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件包名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar（140）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_uuid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上一层组id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>parent_uuid</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（36）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则组id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（36）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识 netPage还是column，还是link</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_excute_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>success_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（50）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_msg</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（2000）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅限于展示时好看的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集入口地址，入口地址很重要</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网页的字符集</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求时用到的数据，可能使用，预留的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>excute_batch</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义爬虫程序文件管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件包名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>zip_file_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_path</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（200）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是通用平台采集，还是执行上传的自定义采集程序,自定义采集程序将不会进入统计信息，需自己添加统计的内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络爬虫表结构，数据库表的管理与维护与推荐建议执行语句，统计信息，自定义图标展示页面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终可能是表名称，需要好好起名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站任务管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务错误信息管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站采集入口管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则组id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务执行开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近一次执行时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>surplus_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计剩余采集数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集通用标识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集出错数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>excute_flag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行中，已停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（500）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>discription</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行的命令</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_crawler_task_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_crawler_task_self_code_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_crawler_url_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_crawler_ruler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sys_crawler_ruler_colum_info</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_crawler_result_ruler_info</t>
+    <t>ruler</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_crawler_task_err_info</t>
+    <t>ruler_colum_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>table_uuid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5068,7 +5088,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>265</v>
@@ -5513,13 +5533,13 @@
         <v>194</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>195</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>138</v>
@@ -5557,7 +5577,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>265</v>
@@ -5595,7 +5615,7 @@
         <v>201</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>128</v>
@@ -5761,8 +5781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5797,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1">
@@ -5816,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1">
@@ -5829,51 +5849,51 @@
     </row>
     <row r="6" spans="1:17" s="32" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>317</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="48" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E7" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>597</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>607</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>138</v>
@@ -5893,37 +5913,37 @@
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="48" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="D8" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>561</v>
-      </c>
       <c r="E8" s="48" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="M8" s="48" t="s">
         <v>265</v>
@@ -5943,34 +5963,34 @@
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="10" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>146</v>
@@ -5988,7 +6008,7 @@
         <v>258</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -6001,11 +6021,11 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="s">
-        <v>583</v>
+        <v>545</v>
       </c>
       <c r="I10" s="49"/>
       <c r="J10" s="10" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -6023,16 +6043,16 @@
     </row>
     <row r="12" spans="1:17" s="32" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>317</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6040,13 +6060,13 @@
         <v>229</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>2</v>
@@ -6072,13 +6092,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>144</v>
@@ -6101,16 +6121,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="10" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>146</v>
@@ -6128,7 +6148,7 @@
         <v>258</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6153,16 +6173,16 @@
     </row>
     <row r="18" spans="1:16" s="32" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>317</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -6170,13 +6190,13 @@
         <v>229</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>2</v>
@@ -6202,13 +6222,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>568</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>581</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>144</v>
@@ -6231,19 +6251,19 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="10" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>146</v>
+        <v>614</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>128</v>
@@ -6258,7 +6278,7 @@
         <v>258</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6283,16 +6303,16 @@
     </row>
     <row r="24" spans="1:16" s="32" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="C24" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6300,28 +6320,28 @@
         <v>229</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>284</v>
+        <v>571</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>283</v>
+        <v>575</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>280</v>
+        <v>576</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>279</v>
+        <v>578</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>277</v>
+        <v>580</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>276</v>
+        <v>581</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>275</v>
+        <v>584</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>2</v>
@@ -6347,28 +6367,28 @@
         <v>6</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>267</v>
+        <v>572</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>268</v>
+        <v>573</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>269</v>
+        <v>574</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>270</v>
+        <v>577</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>271</v>
+        <v>579</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>272</v>
+        <v>583</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>273</v>
+        <v>585</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>144</v>
@@ -6394,28 +6414,28 @@
         <v>262</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>282</v>
+        <v>582</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>75</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>146</v>
@@ -6433,7 +6453,7 @@
         <v>258</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -6442,23 +6462,23 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -6472,16 +6492,16 @@
     <row r="29" spans="1:16" s="3" customFormat="1"/>
     <row r="30" spans="1:16" s="47" customFormat="1">
       <c r="A30" s="52" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="C30" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -6489,16 +6509,16 @@
         <v>229</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>2</v>
@@ -6524,16 +6544,16 @@
         <v>6</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>287</v>
+        <v>615</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>144</v>
@@ -6562,13 +6582,13 @@
         <v>262</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>146</v>
@@ -6586,7 +6606,7 @@
         <v>258</v>
       </c>
       <c r="L33" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -6595,10 +6615,10 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>585</v>
+        <v>547</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -6615,13 +6635,13 @@
         <v>266</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -6629,34 +6649,34 @@
         <v>229</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>2</v>
@@ -6682,34 +6702,34 @@
         <v>6</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>303</v>
+        <v>618</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="K38" s="9" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>144</v>
@@ -6738,31 +6758,31 @@
         <v>262</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>262</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>311</v>
-      </c>
       <c r="L39" s="10" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>146</v>
@@ -6780,7 +6800,7 @@
         <v>258</v>
       </c>
       <c r="R39" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -6789,7 +6809,7 @@
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
@@ -6811,98 +6831,98 @@
     <row r="41" spans="1:18" s="1" customFormat="1"/>
     <row r="42" spans="1:18" s="3" customFormat="1">
       <c r="A42" s="15" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>614</v>
+        <v>561</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="B43" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>368</v>
-      </c>
       <c r="F43" s="9" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="B44" s="48" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>347</v>
+        <v>619</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>344</v>
+        <v>620</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="K44" s="48" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="N44" s="28" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -6943,7 +6963,7 @@
         <v>258</v>
       </c>
       <c r="N45" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -6968,44 +6988,44 @@
     <row r="47" spans="1:18" s="1" customFormat="1"/>
     <row r="48" spans="1:18" s="32" customFormat="1">
       <c r="A48" s="32" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="5" customFormat="1">
       <c r="A49" s="65" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="B50" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D50" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>516</v>
-      </c>
       <c r="E50" s="48" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="H50" s="48" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>2</v>
@@ -7023,7 +7043,7 @@
         <v>259</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="66" customFormat="1">
@@ -7031,40 +7051,40 @@
         <v>6</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F51" s="67" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="G51" s="67" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="H51" s="67" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -7072,16 +7092,16 @@
         <v>262</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>72</v>
@@ -7105,7 +7125,7 @@
         <v>258</v>
       </c>
       <c r="N52" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -7133,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C55" s="61" t="s">
         <v>4</v>
@@ -7183,7 +7203,7 @@
         <v>259</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -7191,13 +7211,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>27</v>
@@ -7271,7 +7291,7 @@
         <v>258</v>
       </c>
       <c r="O58" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -7297,16 +7317,16 @@
     <row r="60" spans="1:15" s="1" customFormat="1"/>
     <row r="61" spans="1:15" s="61" customFormat="1">
       <c r="A61" s="51" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C61" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -7323,7 +7343,7 @@
         <v>227</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>2</v>
@@ -7341,7 +7361,7 @@
         <v>259</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -7349,34 +7369,34 @@
         <v>212</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -7390,7 +7410,7 @@
         <v>228</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>146</v>
@@ -7411,7 +7431,7 @@
         <v>258</v>
       </c>
       <c r="L64" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -7437,7 +7457,7 @@
         <v>38</v>
       </c>
       <c r="B67" s="64" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>4</v>
@@ -7448,7 +7468,7 @@
     </row>
     <row r="68" spans="1:23">
       <c r="B68" s="9" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>40</v>
@@ -7487,7 +7507,7 @@
         <v>259</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:23" s="66" customFormat="1">
@@ -7495,43 +7515,43 @@
         <v>6</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D69" s="67" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E69" s="67" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F69" s="67" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="G69" s="67" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="H69" s="67" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="I69" s="67" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>144</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -7557,7 +7577,7 @@
         <v>158</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>146</v>
@@ -7575,7 +7595,7 @@
         <v>258</v>
       </c>
       <c r="O70" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -7603,16 +7623,16 @@
     <row r="72" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="73" spans="1:23" s="5" customFormat="1">
       <c r="A73" s="65" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B73" s="64" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -7626,43 +7646,43 @@
         <v>48</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="J74" s="28" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="L74" s="28" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="M74" s="28" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="N74" s="28" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="P74" s="48" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="Q74" s="28" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="R74" s="9" t="s">
         <v>2</v>
@@ -7680,7 +7700,7 @@
         <v>259</v>
       </c>
       <c r="W74" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:23" s="66" customFormat="1">
@@ -7688,67 +7708,67 @@
         <v>6</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="G75" s="48" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="J75" s="28" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="K75" s="28" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="M75" s="28" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="N75" s="28" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="O75" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="P75" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q75" s="28" t="s">
         <v>468</v>
-      </c>
-      <c r="P75" s="67" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q75" s="28" t="s">
-        <v>487</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>144</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -7762,13 +7782,13 @@
         <v>33</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G76" s="69" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>72</v>
@@ -7777,28 +7797,28 @@
         <v>72</v>
       </c>
       <c r="J76" s="28" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="M76" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="N76" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="O76" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="P76" s="28" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="Q76" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="R76" s="9" t="s">
         <v>146</v>
@@ -7816,7 +7836,7 @@
         <v>258</v>
       </c>
       <c r="W76" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7854,16 +7874,16 @@
     <row r="78" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="79" spans="1:23" s="5" customFormat="1">
       <c r="A79" s="65" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B79" s="64" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7871,22 +7891,22 @@
         <v>5</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="G80" s="48" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>2</v>
@@ -7898,7 +7918,7 @@
         <v>257</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="66" customFormat="1">
@@ -7906,34 +7926,34 @@
         <v>6</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D81" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="E81" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="G81" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="H81" s="48" t="s">
         <v>524</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="F81" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="G81" s="48" t="s">
-        <v>527</v>
-      </c>
-      <c r="H81" s="48" t="s">
-        <v>543</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7941,22 +7961,22 @@
         <v>262</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>146</v>
@@ -7968,7 +7988,7 @@
         <v>258</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -7991,16 +8011,16 @@
     <row r="84" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="85" spans="1:12" s="5" customFormat="1">
       <c r="A85" s="65" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B85" s="64" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -8011,19 +8031,19 @@
         <v>47</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>138</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>140</v>
@@ -8037,22 +8057,22 @@
         <v>59</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="F87" s="28" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -8066,16 +8086,16 @@
         <v>33</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>72</v>
@@ -8099,10 +8119,10 @@
     </row>
     <row r="91" spans="1:12" s="5" customFormat="1">
       <c r="A91" s="65" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="D91" s="33"/>
     </row>
@@ -8111,10 +8131,10 @@
         <v>5</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E92" s="48" t="s">
         <v>226</v>
@@ -8123,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="G92" s="28" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>138</v>
@@ -8138,7 +8158,7 @@
         <v>259</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -8146,34 +8166,34 @@
         <v>6</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -8181,19 +8201,19 @@
         <v>262</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>146</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>128</v>
@@ -8208,7 +8228,7 @@
         <v>258</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -8230,10 +8250,10 @@
     </row>
     <row r="97" spans="1:21" s="5" customFormat="1">
       <c r="A97" s="65" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D97" s="33"/>
     </row>
@@ -8245,40 +8265,40 @@
         <v>5</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="H98" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="J98" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="K98" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L98" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="M98" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="N98" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="I98" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="J98" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="K98" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="L98" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="M98" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="N98" s="28" t="s">
-        <v>411</v>
-      </c>
       <c r="O98" s="28" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="P98" s="9" t="s">
         <v>2</v>
@@ -8296,7 +8316,7 @@
         <v>259</v>
       </c>
       <c r="U98" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -8304,61 +8324,61 @@
         <v>6</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F99" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="D99" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>400</v>
-      </c>
       <c r="G99" s="28" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="H99" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="J99" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="K99" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="L99" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="M99" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="N99" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="I99" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="J99" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="K99" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="L99" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="M99" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="N99" s="28" t="s">
-        <v>410</v>
-      </c>
       <c r="O99" s="28" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="P99" s="9" t="s">
         <v>144</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="R99" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="T99" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="U99" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -8372,7 +8392,7 @@
         <v>146</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>146</v>
@@ -8384,16 +8404,16 @@
         <v>146</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="J100" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="L100" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="M100" s="10" t="s">
         <v>33</v>
@@ -8420,7 +8440,7 @@
         <v>258</v>
       </c>
       <c r="U100" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -8453,10 +8473,10 @@
     </row>
     <row r="103" spans="1:21" s="5" customFormat="1">
       <c r="A103" s="65" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B103" s="64" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="D103" s="33"/>
     </row>
@@ -8468,16 +8488,16 @@
         <v>5</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="G104" s="28" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="H104" s="48" t="s">
         <v>226</v>
@@ -8498,7 +8518,7 @@
         <v>259</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -8506,40 +8526,40 @@
         <v>6</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="H105" s="67" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -8562,7 +8582,7 @@
         <v>146</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9" t="s">
         <v>146</v>
@@ -8580,7 +8600,7 @@
         <v>258</v>
       </c>
       <c r="N106" s="28" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -8615,8 +8635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8644,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -8652,10 +8672,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -8663,15 +8683,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -8683,13 +8703,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8697,10 +8717,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8708,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>7</v>
@@ -8730,7 +8750,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D11" s="68">
         <v>1</v>
@@ -8746,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -8784,7 +8804,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>22</v>
@@ -8795,7 +8815,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>24</v>
@@ -8819,7 +8839,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>31</v>
@@ -8883,7 +8903,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -8900,54 +8920,54 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="9" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -8970,10 +8990,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>32</v>
@@ -9005,7 +9025,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -9034,7 +9054,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>52</v>
@@ -9186,7 +9206,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -9239,7 +9259,7 @@
         <v>93</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -9289,10 +9309,10 @@
         <v>105</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9345,7 +9365,7 @@
         <v>110</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -9380,7 +9400,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -9503,7 +9523,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:8">

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="618">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1242,10 +1242,6 @@
   </si>
   <si>
     <t>varchar(1000)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>种子列表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2572,10 +2568,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>网站采集入口管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>规则组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2650,10 +2642,6 @@
   <si>
     <t>文件地址</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_crawler_url_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>网站类型</t>
@@ -5088,7 +5076,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>265</v>
@@ -5533,7 +5521,7 @@
         <v>194</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>195</v>
@@ -5577,7 +5565,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>265</v>
@@ -5779,10 +5767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5812,7 +5800,7 @@
     <col min="23" max="23" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:24">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5820,7 +5808,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
+    <row r="2" spans="1:24" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5831,242 +5819,324 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1">
+    <row r="3" spans="1:24" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1">
+    <row r="5" spans="1:24" s="1" customFormat="1">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:17" s="32" customFormat="1">
+    <row r="6" spans="1:24" s="32" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="62" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="B8" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="48" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="D8" s="48" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="L8" s="48" t="s">
         <v>590</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="M8" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>595</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>597</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="P8" s="48" t="s">
         <v>599</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="Q8" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="48" t="s">
-        <v>553</v>
-      </c>
-      <c r="C8" s="48" t="s">
+      <c r="T8" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="B9" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>593</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>594</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>598</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>600</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>602</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="L9" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="B9" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="X9" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:24">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>525</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="H10" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="10" t="s">
-        <v>556</v>
+        <v>540</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>541</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="P10" s="49"/>
       <c r="Q10" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1">
+    <row r="11" spans="1:24" s="1" customFormat="1">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:17" s="32" customFormat="1">
+    <row r="12" spans="1:24" s="32" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="B13" s="48" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>609</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>612</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>2</v>
@@ -6087,18 +6157,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:24">
       <c r="B14" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>563</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>564</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>565</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>144</v>
@@ -6119,18 +6189,18 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:24">
       <c r="B15" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>146</v>
@@ -6151,7 +6221,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:24">
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
@@ -6167,36 +6237,36 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1">
+    <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:16" s="32" customFormat="1">
+    <row r="18" spans="1:18" s="32" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="B19" s="48" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>2</v>
@@ -6217,18 +6287,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:18">
       <c r="B20" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>144</v>
@@ -6249,21 +6319,21 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:18">
       <c r="B21" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>128</v>
@@ -6281,7 +6351,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:18">
       <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
@@ -6297,2330 +6367,2142 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="54" customFormat="1">
+    <row r="23" spans="1:18" s="54" customFormat="1">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
     </row>
-    <row r="24" spans="1:16" s="32" customFormat="1">
-      <c r="A24" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="C24" s="61" t="s">
+    <row r="24" spans="1:18" s="3" customFormat="1"/>
+    <row r="25" spans="1:18" s="47" customFormat="1">
+      <c r="A25" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D25" s="63" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="B25" s="48" t="s">
+    <row r="26" spans="1:18">
+      <c r="B26" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="C26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="B26" s="48" t="s">
+    <row r="27" spans="1:18">
+      <c r="B27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>572</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>574</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>579</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>583</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L26" s="48" t="s">
+      <c r="H27" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="M26" s="48" t="s">
+      <c r="I27" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="P26" s="28" t="s">
+      <c r="L27" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="B27" s="10" t="s">
+    <row r="28" spans="1:18">
+      <c r="B28" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="5" customFormat="1">
+      <c r="A31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="B33" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="B34" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="B28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1"/>
-    <row r="30" spans="1:16" s="47" customFormat="1">
-      <c r="A30" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>560</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="B31" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="B32" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="B33" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="B34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="5" customFormat="1">
-      <c r="A36" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="C36" s="62" t="s">
+    <row r="36" spans="1:18" s="1" customFormat="1"/>
+    <row r="37" spans="1:18" s="3" customFormat="1">
+      <c r="A37" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="B37" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="B38" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="B39" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="B40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="1" customFormat="1"/>
+    <row r="43" spans="1:18" s="32" customFormat="1">
+      <c r="A43" s="32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="5" customFormat="1">
+      <c r="A44" s="65" t="s">
+        <v>486</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>521</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="B45" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="66" customFormat="1">
+      <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="M38" s="9" t="s">
+      <c r="C46" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="E46" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="G46" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="N38" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="O38" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="R38" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="B39" s="10" t="s">
+      <c r="J46" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="B47" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="M39" s="9" t="s">
+      <c r="C47" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="F47" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="K47" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="L47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="M47" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="R39" s="28" t="s">
+      <c r="N47" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="B40" s="9" t="s">
+    <row r="48" spans="1:18">
+      <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="1" customFormat="1"/>
-    <row r="42" spans="1:18" s="3" customFormat="1">
-      <c r="A42" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="B43" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="B44" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>620</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="H44" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="J44" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="N44" s="28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="B45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N45" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="B46" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="1" customFormat="1"/>
-    <row r="48" spans="1:18" s="32" customFormat="1">
-      <c r="A48" s="32" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="5" customFormat="1">
-      <c r="A49" s="65" t="s">
-        <v>487</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>522</v>
-      </c>
-      <c r="C49" s="5" t="s">
+    <row r="49" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="50" spans="1:15" s="61" customFormat="1">
+      <c r="A50" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="33" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="B50" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="I50" s="9" t="s">
+      <c r="D50" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="B51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="K51" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="L51" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="M51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="N51" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="O51" s="9" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="66" customFormat="1">
-      <c r="B51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>491</v>
-      </c>
-      <c r="E51" s="67" t="s">
-        <v>494</v>
-      </c>
-      <c r="F51" s="67" t="s">
-        <v>492</v>
-      </c>
-      <c r="G51" s="67" t="s">
-        <v>493</v>
-      </c>
-      <c r="H51" s="67" t="s">
-        <v>495</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="N51" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="B52" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="F52" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K52" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="L52" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O52" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="B53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O53" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="B53" s="9" t="s">
+    </row>
+    <row r="54" spans="1:15">
+      <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="55" spans="1:15" s="61" customFormat="1">
-      <c r="A55" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="C55" s="61" t="s">
+    <row r="55" spans="1:15" s="1" customFormat="1"/>
+    <row r="56" spans="1:15" s="61" customFormat="1">
+      <c r="A56" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="61" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="B56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N56" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="O56" s="9" t="s">
-        <v>295</v>
+      <c r="D56" s="62" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="B57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="B58" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="B60" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="62" spans="1:15" s="5" customFormat="1">
+      <c r="A62" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="B63" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I63" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="66" customFormat="1">
+      <c r="B64" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="C64" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="E64" s="67" t="s">
+        <v>479</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="H64" s="67" t="s">
+        <v>482</v>
+      </c>
+      <c r="I64" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="B65" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O65" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="B66" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="68" spans="1:23" s="5" customFormat="1">
+      <c r="A68" s="65" t="s">
+        <v>469</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="B69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="L69" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="P69" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q69" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="R69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T69" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U69" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="W69" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" s="66" customFormat="1">
+      <c r="B70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="F70" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="K57" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="L57" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="M57" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="N57" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="O57" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="B58" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="G70" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="L70" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="M70" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="N70" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="O70" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="P70" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q70" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="R70" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="T70" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="V70" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="W70" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="B71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="E71" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G71" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="L71" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="N71" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="O71" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="P71" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q71" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U71" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V71" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="W71" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="B72" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72" s="49"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="74" spans="1:23" s="5" customFormat="1">
+      <c r="A74" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="B75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F75" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="H75" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="66" customFormat="1">
+      <c r="B76" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="B77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="B78" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="80" spans="1:23" s="5" customFormat="1">
+      <c r="A80" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="B81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="B82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="B83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="E83" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="B84" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="5" customFormat="1">
+      <c r="A86" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="D86" s="33"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="B87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E87" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="B88" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="B89" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="L89" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="B90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" s="5" customFormat="1">
+      <c r="A92" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="D92" s="33"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="B93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="K93" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M93" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="N93" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="O93" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="P93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R93" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T93" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="U93" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="B94" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="J94" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K94" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="L94" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="M94" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="N94" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="O94" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q94" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="R94" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="S94" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="T94" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="U94" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="B95" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="J95" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="K95" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="L95" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="M95" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J58" s="9" t="s">
+      <c r="N95" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P95" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="Q95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="R95" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="S95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="T95" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="O58" s="28" t="s">
+      <c r="U95" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="B59" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10" t="s">
+    <row r="96" spans="1:21">
+      <c r="B96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1"/>
-    <row r="61" spans="1:15" s="61" customFormat="1">
-      <c r="A61" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>472</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="B62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F62" s="9" t="s">
+    <row r="98" spans="1:14" s="5" customFormat="1">
+      <c r="A98" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="D98" s="33"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="B99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="B100" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="E100" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="H100" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J100" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="B63" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="9" t="s">
+      <c r="K100" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="L100" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="M100" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="N100" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="L63" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="B64" s="10" t="s">
+    </row>
+    <row r="101" spans="1:14">
+      <c r="B101" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="F64" s="9" t="s">
+      <c r="C101" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="F101" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="G101" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J101" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I64" s="9" t="s">
+      <c r="K101" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="L101" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="M101" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="L64" s="28" t="s">
+      <c r="N101" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
-      <c r="B65" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="67" spans="1:23" s="5" customFormat="1">
-      <c r="A67" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="B68" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F68" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="G68" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="H68" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="I68" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" s="66" customFormat="1">
-      <c r="B69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="E69" s="67" t="s">
-        <v>480</v>
-      </c>
-      <c r="F69" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="G69" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="H69" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="I69" s="67" t="s">
-        <v>484</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N69" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="B70" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="N70" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O70" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="B71" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="73" spans="1:23" s="5" customFormat="1">
-      <c r="A73" s="65" t="s">
-        <v>470</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
-      <c r="B74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="F74" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="G74" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="J74" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="K74" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="M74" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="N74" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="O74" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="P74" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q74" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="R74" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S74" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="T74" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="U74" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="V74" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="W74" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" s="66" customFormat="1">
-      <c r="B75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="E75" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="F75" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="G75" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="K75" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="M75" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="N75" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="O75" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="P75" s="67" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q75" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="R75" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="S75" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="T75" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="U75" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="V75" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="W75" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
-      <c r="B76" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G76" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J76" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="K76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="L76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="M76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="N76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="O76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="P76" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q76" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="R76" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="S76" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T76" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="U76" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V76" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="W76" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
-      <c r="B77" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="79" spans="1:23" s="5" customFormat="1">
-      <c r="A79" s="65" t="s">
-        <v>503</v>
-      </c>
-      <c r="B79" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
-      <c r="B80" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="E80" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="F80" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="G80" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="H80" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="66" customFormat="1">
-      <c r="B81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="F81" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="G81" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="H81" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="B82" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="B83" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="1" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="85" spans="1:12" s="5" customFormat="1">
-      <c r="A85" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B85" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="B86" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="B87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="B88" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="B89" s="9" t="s">
+    <row r="102" spans="1:14">
+      <c r="B102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="5" customFormat="1">
-      <c r="A91" s="65" t="s">
-        <v>359</v>
-      </c>
-      <c r="B91" s="64" t="s">
-        <v>519</v>
-      </c>
-      <c r="D91" s="33"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="B92" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="E92" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G92" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="B93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E93" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G93" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="B94" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L94" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="B95" s="9" t="s">
+      <c r="C102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" s="5" customFormat="1">
-      <c r="A97" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="B97" s="64" t="s">
-        <v>520</v>
-      </c>
-      <c r="D97" s="33"/>
-    </row>
-    <row r="98" spans="1:21">
-      <c r="B98" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="G98" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="J98" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="K98" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="L98" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="M98" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="N98" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="O98" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="P98" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="R98" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S98" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="T98" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="U98" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
-      <c r="B99" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="J99" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="K99" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="L99" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="M99" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="N99" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="O99" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="P99" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q99" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="R99" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="S99" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="T99" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="U99" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
-      <c r="B100" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="J100" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="K100" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="L100" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N100" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O100" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q100" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R100" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="S100" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T100" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="U100" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
-      <c r="B101" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" s="5" customFormat="1">
-      <c r="A103" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B103" s="64" t="s">
-        <v>521</v>
-      </c>
-      <c r="D103" s="33"/>
-    </row>
-    <row r="104" spans="1:21">
-      <c r="B104" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="E104" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="F104" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="G104" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="H104" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L104" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="N104" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
-      <c r="B105" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="F105" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="G105" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="H105" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="M105" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="N105" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
-      <c r="B106" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N106" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
-      <c r="B107" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8664,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -8672,10 +8554,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -8683,15 +8565,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -8703,13 +8585,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8717,10 +8599,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8728,7 +8610,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>7</v>
@@ -8750,7 +8632,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D11" s="68">
         <v>1</v>
@@ -8766,7 +8648,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -8804,7 +8686,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>22</v>
@@ -8815,7 +8697,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>24</v>
@@ -8839,7 +8721,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>31</v>
@@ -8903,7 +8785,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -8920,54 +8802,54 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -8990,10 +8872,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>32</v>
@@ -9025,7 +8907,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -9054,7 +8936,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>52</v>
@@ -9206,7 +9088,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -9259,7 +9141,7 @@
         <v>93</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -9309,10 +9191,10 @@
         <v>105</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9365,7 +9247,7 @@
         <v>110</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -9400,7 +9282,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -9523,7 +9405,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:8">

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$X$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -5769,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5778,26 +5778,26 @@
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="15.75" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.375" customWidth="1"/>
     <col min="22" max="22" width="11.625" customWidth="1"/>
     <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="24" max="24" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本记录!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">后台管理!$A$1:$M$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">结构设计!$A$1:$K$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$X$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">数据管理!$A$1:$W$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">数据流转表结构设计!$A$1:$U$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="615">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -2604,10 +2604,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_crawler_ruler_info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_crawler_result_ruler_info</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2652,18 +2648,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>url_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>web_icon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>网站名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>网站商标</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2688,10 +2676,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>request_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2841,6 +2825,10 @@
   </si>
   <si>
     <t>table_uuid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_crawler_ruler_info</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5767,16 +5755,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -5789,18 +5777,17 @@
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
     <col min="18" max="18" width="15.75" customWidth="1"/>
     <col min="19" max="19" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.375" customWidth="1"/>
     <col min="22" max="22" width="11.625" customWidth="1"/>
     <col min="23" max="23" width="13.875" customWidth="1"/>
-    <col min="24" max="24" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5808,7 +5795,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1">
+    <row r="2" spans="1:23" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5819,7 +5806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1">
+    <row r="3" spans="1:23" s="1" customFormat="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5827,171 +5814,165 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1">
+    <row r="4" spans="1:23" s="1" customFormat="1">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1">
+    <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5"/>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:24" s="32" customFormat="1">
+    <row r="6" spans="1:23" s="32" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>547</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="B7" s="48" t="s">
         <v>552</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E7" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>581</v>
+      <c r="J7" s="28" t="s">
+        <v>590</v>
       </c>
       <c r="K7" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>598</v>
+      <c r="O7" s="9" t="s">
+        <v>553</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>556</v>
+        <v>138</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="X7" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:23">
       <c r="B8" s="48" t="s">
         <v>551</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D8" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>569</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>570</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>571</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H8" s="48" t="s">
         <v>576</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L8" s="48" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M8" s="48" t="s">
         <v>591</v>
       </c>
       <c r="N8" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="O8" s="48" t="s">
         <v>595</v>
       </c>
-      <c r="O8" s="48" t="s">
-        <v>597</v>
-      </c>
-      <c r="P8" s="48" t="s">
-        <v>599</v>
+      <c r="P8" s="9" t="s">
+        <v>596</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="S8" s="9" t="s">
         <v>555</v>
       </c>
+      <c r="S8" s="48" t="s">
+        <v>265</v>
+      </c>
       <c r="T8" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="U8" s="48" t="s">
         <v>263</v>
       </c>
+      <c r="U8" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="V8" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="W8" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="X8" s="28" t="s">
+      <c r="W8" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:23">
       <c r="B9" s="10" t="s">
         <v>528</v>
       </c>
@@ -6002,67 +5983,64 @@
         <v>270</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="F9" s="28" t="s">
         <v>269</v>
       </c>
+      <c r="F9" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="G9" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="9" t="s">
         <v>75</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>267</v>
+      <c r="J9" s="28" t="s">
+        <v>585</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="L9" s="28" t="s">
         <v>536</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>537</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="9" t="s">
         <v>537</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>603</v>
+        <v>146</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="T9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="V9" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="X9" s="28" t="s">
+      <c r="W9" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:23">
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
@@ -6070,73 +6048,72 @@
       <c r="D10" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>538</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="I10" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="I10" s="49" t="s">
         <v>541</v>
       </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="10" t="s">
+      <c r="O10" s="49"/>
+      <c r="P10" s="10" t="s">
         <v>554</v>
       </c>
+      <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
+      <c r="W10" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1">
+    <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:24" s="32" customFormat="1">
+    <row r="12" spans="1:23" s="32" customFormat="1">
       <c r="A12" s="11" t="s">
         <v>548</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" s="48" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>2</v>
@@ -6157,18 +6134,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:23">
       <c r="B14" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="E14" s="48" t="s">
         <v>562</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>563</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>144</v>
@@ -6189,7 +6166,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:23">
       <c r="B15" s="10" t="s">
         <v>533</v>
       </c>
@@ -6197,10 +6174,10 @@
         <v>533</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>146</v>
@@ -6221,7 +6198,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:23">
       <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
@@ -6252,7 +6229,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -6260,13 +6237,13 @@
         <v>229</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>2</v>
@@ -6292,13 +6269,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D20" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>565</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>566</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>144</v>
@@ -6330,10 +6307,10 @@
         <v>543</v>
       </c>
       <c r="E21" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>128</v>
@@ -6377,7 +6354,7 @@
         <v>549</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="C25" s="61" t="s">
         <v>4</v>
@@ -6426,7 +6403,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>273</v>
@@ -6435,7 +6412,7 @@
         <v>276</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>144</v>
@@ -6517,7 +6494,7 @@
         <v>266</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C31" s="62" t="s">
         <v>302</v>
@@ -6593,7 +6570,7 @@
         <v>286</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>273</v>
@@ -6716,7 +6693,7 @@
         <v>357</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C37" s="62" t="s">
         <v>302</v>
@@ -6777,10 +6754,10 @@
         <v>327</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G39" s="48" t="s">
         <v>332</v>

--- a/design/数据库设计.xlsx
+++ b/design/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="5985" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12396" windowHeight="5988" tabRatio="864" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="611">
   <si>
     <t xml:space="preserve">数据库 </t>
   </si>
@@ -1156,59 +1156,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>split 1字符串</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>split 2整型脚标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apand 字符</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apand 方式 字符</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>array 取一个 整型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>colum_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>spl1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spl2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>app2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar（200）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar（500）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2829,6 +2785,34 @@
   </si>
   <si>
     <t>sys_crawler_ruler_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截取开始位置、数组的位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截取结束的位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼接、替换字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>param_new</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3936,7 +3920,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="29"/>
@@ -4109,7 +4093,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="1:11" ht="14.25" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="31"/>
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
@@ -4122,7 +4106,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25" thickTop="1">
+    <row r="15" spans="1:11" ht="15" thickTop="1">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -4161,7 +4145,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="32"/>
     </row>
-    <row r="18" spans="1:11" ht="14.25" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18" s="31"/>
       <c r="B18" s="75"/>
       <c r="C18" s="76"/>
@@ -4174,7 +4158,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="32"/>
     </row>
-    <row r="19" spans="1:11" ht="14.25" thickTop="1">
+    <row r="19" spans="1:11" ht="15" thickTop="1">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
@@ -4200,7 +4184,7 @@
       <c r="J20" s="31"/>
       <c r="K20" s="32"/>
     </row>
-    <row r="21" spans="1:11" ht="14.25" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1">
       <c r="A21" s="31"/>
       <c r="B21" s="44"/>
       <c r="C21" s="45"/>
@@ -4213,7 +4197,7 @@
       <c r="J21" s="31"/>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:11" ht="14.25" thickTop="1">
+    <row r="22" spans="1:11" ht="15" thickTop="1">
       <c r="A22" s="31"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
@@ -4440,21 +4424,21 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -5064,7 +5048,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>265</v>
@@ -5509,13 +5493,13 @@
         <v>194</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>195</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>138</v>
@@ -5553,7 +5537,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I58" s="48" t="s">
         <v>265</v>
@@ -5591,7 +5575,7 @@
         <v>201</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>128</v>
@@ -5757,34 +5741,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="A30:M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="15.75" customWidth="1"/>
-    <col min="19" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
-    <col min="23" max="23" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5811,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
@@ -5824,69 +5808,69 @@
     </row>
     <row r="6" spans="1:23" s="32" customFormat="1">
       <c r="A6" s="11" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="B7" s="48" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="K7" s="28" t="s">
+      <c r="O7" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>600</v>
-      </c>
       <c r="R7" s="9" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="S7" s="9" t="s">
         <v>138</v>
@@ -5906,55 +5890,55 @@
     </row>
     <row r="8" spans="1:23">
       <c r="B8" s="48" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>565</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="N8" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>568</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>569</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>576</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="J8" s="48" t="s">
+      <c r="O8" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="K8" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="L8" s="48" t="s">
+      <c r="P8" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="M8" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="N8" s="48" t="s">
-        <v>593</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>595</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>598</v>
-      </c>
       <c r="R8" s="9" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="S8" s="48" t="s">
         <v>265</v>
@@ -5974,10 +5958,10 @@
     </row>
     <row r="9" spans="1:23">
       <c r="B9" s="10" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>270</v>
@@ -5998,28 +5982,28 @@
         <v>267</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>146</v>
@@ -6037,7 +6021,7 @@
         <v>258</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -6046,33 +6030,33 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="O10" s="49"/>
       <c r="P10" s="10" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -6090,16 +6074,16 @@
     </row>
     <row r="12" spans="1:23" s="32" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -6107,13 +6091,13 @@
         <v>229</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>2</v>
@@ -6139,13 +6123,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>144</v>
@@ -6168,16 +6152,16 @@
     </row>
     <row r="15" spans="1:23">
       <c r="B15" s="10" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>146</v>
@@ -6195,7 +6179,7 @@
         <v>258</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -6214,36 +6198,36 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1">
+    <row r="17" spans="1:17" s="1" customFormat="1">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:18" s="32" customFormat="1">
+    <row r="18" spans="1:17" s="32" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="B19" s="48" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>2</v>
@@ -6264,18 +6248,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:17">
       <c r="B20" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>144</v>
@@ -6296,21 +6280,21 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:17">
       <c r="B21" s="10" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>128</v>
@@ -6325,10 +6309,10 @@
         <v>258</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
@@ -6344,26 +6328,26 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="54" customFormat="1">
+    <row r="23" spans="1:17" s="54" customFormat="1">
       <c r="A23" s="55"/>
       <c r="B23" s="55"/>
     </row>
-    <row r="24" spans="1:18" s="3" customFormat="1"/>
-    <row r="25" spans="1:18" s="47" customFormat="1">
+    <row r="24" spans="1:17" s="3" customFormat="1"/>
+    <row r="25" spans="1:17" s="47" customFormat="1">
       <c r="A25" s="52" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C25" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="B26" s="48" t="s">
         <v>229</v>
       </c>
@@ -6377,7 +6361,7 @@
         <v>275</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>2</v>
@@ -6398,12 +6382,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:17">
       <c r="B27" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>273</v>
@@ -6412,7 +6396,7 @@
         <v>276</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>144</v>
@@ -6433,7 +6417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:17">
       <c r="B28" s="10" t="s">
         <v>262</v>
       </c>
@@ -6447,7 +6431,7 @@
         <v>278</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>146</v>
@@ -6465,19 +6449,19 @@
         <v>258</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -6489,32 +6473,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="5" customFormat="1">
+    <row r="31" spans="1:17" s="5" customFormat="1">
       <c r="A31" s="15" t="s">
         <v>266</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="B32" s="48" t="s">
         <v>229</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>279</v>
@@ -6523,93 +6507,87 @@
         <v>280</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>281</v>
+        <v>607</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>282</v>
+        <v>608</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>284</v>
+        <v>609</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>283</v>
+        <v>609</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="R32" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:17">
       <c r="B33" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>273</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>287</v>
+        <v>604</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>288</v>
+        <v>605</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>289</v>
+        <v>606</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>290</v>
+        <v>610</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="M33" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="M33" s="48" t="s">
+        <v>265</v>
+      </c>
       <c r="N33" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="O33" s="48" t="s">
         <v>263</v>
       </c>
+      <c r="O33" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="P33" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q33" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="R33" s="28" t="s">
+      <c r="Q33" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:17">
       <c r="B34" s="10" t="s">
         <v>262</v>
       </c>
@@ -6617,13 +6595,13 @@
         <v>262</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>262</v>
@@ -6632,43 +6610,40 @@
         <v>278</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>278</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>293</v>
+        <v>278</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="N34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="P34" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="P34" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="R34" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="Q34" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10"/>
@@ -6682,109 +6657,108 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10" t="s">
+      <c r="Q35" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="1" customFormat="1"/>
-    <row r="37" spans="1:18" s="3" customFormat="1">
+    <row r="36" spans="1:17" s="1" customFormat="1"/>
+    <row r="37" spans="1:17" s="3" customFormat="1">
       <c r="A37" s="15" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="B38" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>340</v>
-      </c>
       <c r="N38" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="B39" s="48" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="N39" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="G39" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J39" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="M39" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="10" t="s">
         <v>262</v>
       </c>
@@ -6822,10 +6796,10 @@
         <v>258</v>
       </c>
       <c r="N40" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="B41" s="9" t="s">
         <v>37</v>
       </c>
@@ -6844,47 +6818,47 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="1" customFormat="1"/>
-    <row r="43" spans="1:18" s="32" customFormat="1">
+    <row r="42" spans="1:17" s="1" customFormat="1"/>
+    <row r="43" spans="1:17" s="32" customFormat="1">
       <c r="A43" s="32" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="5" customFormat="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="5" customFormat="1">
       <c r="A44" s="65" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="33" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="G45" s="48" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="B45" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>498</v>
-      </c>
       <c r="H45" s="48" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>2</v>
@@ -6902,65 +6876,65 @@
         <v>259</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="66" customFormat="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="66" customFormat="1">
       <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F46" s="67" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="G46" s="67" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="H46" s="67" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="B47" s="10" t="s">
         <v>262</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>72</v>
@@ -6984,10 +6958,10 @@
         <v>258</v>
       </c>
       <c r="N47" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
@@ -7012,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C50" s="61" t="s">
         <v>4</v>
@@ -7062,7 +7036,7 @@
         <v>259</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -7070,13 +7044,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>27</v>
@@ -7150,7 +7124,7 @@
         <v>258</v>
       </c>
       <c r="O53" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -7176,16 +7150,16 @@
     <row r="55" spans="1:15" s="1" customFormat="1"/>
     <row r="56" spans="1:15" s="61" customFormat="1">
       <c r="A56" s="51" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C56" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -7202,7 +7176,7 @@
         <v>227</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>2</v>
@@ -7220,7 +7194,7 @@
         <v>259</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -7228,34 +7202,34 @@
         <v>212</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -7269,7 +7243,7 @@
         <v>228</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>146</v>
@@ -7290,7 +7264,7 @@
         <v>258</v>
       </c>
       <c r="L59" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -7316,7 +7290,7 @@
         <v>38</v>
       </c>
       <c r="B62" s="64" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>4</v>
@@ -7327,7 +7301,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="B63" s="9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>40</v>
@@ -7366,7 +7340,7 @@
         <v>259</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="66" customFormat="1">
@@ -7374,43 +7348,43 @@
         <v>6</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E64" s="67" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F64" s="67" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G64" s="67" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="H64" s="67" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="I64" s="67" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>144</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -7436,7 +7410,7 @@
         <v>158</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>146</v>
@@ -7454,7 +7428,7 @@
         <v>258</v>
       </c>
       <c r="O65" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -7482,16 +7456,16 @@
     <row r="67" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="68" spans="1:23" s="5" customFormat="1">
       <c r="A68" s="65" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B68" s="64" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -7505,43 +7479,43 @@
         <v>48</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G69" s="48" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J69" s="28" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="M69" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="N69" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="P69" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q69" s="28" t="s">
         <v>457</v>
-      </c>
-      <c r="N69" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="P69" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q69" s="28" t="s">
-        <v>468</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>2</v>
@@ -7559,7 +7533,7 @@
         <v>259</v>
       </c>
       <c r="W69" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:23" s="66" customFormat="1">
@@ -7567,67 +7541,67 @@
         <v>6</v>
       </c>
       <c r="C70" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="F70" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="F70" s="48" t="s">
-        <v>465</v>
-      </c>
       <c r="G70" s="48" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="J70" s="28" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="M70" s="28" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="N70" s="28" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="O70" s="28" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="P70" s="67" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>144</v>
       </c>
       <c r="S70" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="V70" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="W70" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -7641,13 +7615,13 @@
         <v>33</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G71" s="69" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>72</v>
@@ -7656,28 +7630,28 @@
         <v>72</v>
       </c>
       <c r="J71" s="28" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M71" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="O71" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="R71" s="9" t="s">
         <v>146</v>
@@ -7695,7 +7669,7 @@
         <v>258</v>
       </c>
       <c r="W71" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -7733,16 +7707,16 @@
     <row r="73" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="74" spans="1:23" s="5" customFormat="1">
       <c r="A74" s="65" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B74" s="64" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -7750,22 +7724,22 @@
         <v>5</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G75" s="48" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H75" s="48" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>2</v>
@@ -7777,7 +7751,7 @@
         <v>257</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:23" s="66" customFormat="1">
@@ -7785,34 +7759,34 @@
         <v>6</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G76" s="48" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7820,22 +7794,22 @@
         <v>262</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>146</v>
@@ -7847,7 +7821,7 @@
         <v>258</v>
       </c>
       <c r="L77" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7870,16 +7844,16 @@
     <row r="79" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="80" spans="1:23" s="5" customFormat="1">
       <c r="A80" s="65" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B80" s="64" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -7890,19 +7864,19 @@
         <v>47</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>138</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>140</v>
@@ -7916,22 +7890,22 @@
         <v>59</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -7945,16 +7919,16 @@
         <v>33</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>72</v>
@@ -7978,10 +7952,10 @@
     </row>
     <row r="86" spans="1:21" s="5" customFormat="1">
       <c r="A86" s="65" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D86" s="33"/>
     </row>
@@ -7990,10 +7964,10 @@
         <v>5</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E87" s="48" t="s">
         <v>226</v>
@@ -8002,7 +7976,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>138</v>
@@ -8017,7 +7991,7 @@
         <v>259</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -8025,34 +7999,34 @@
         <v>6</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E88" s="67" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -8060,19 +8034,19 @@
         <v>262</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>146</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>128</v>
@@ -8087,7 +8061,7 @@
         <v>258</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -8109,10 +8083,10 @@
     </row>
     <row r="92" spans="1:21" s="5" customFormat="1">
       <c r="A92" s="65" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B92" s="64" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D92" s="33"/>
     </row>
@@ -8124,40 +8098,40 @@
         <v>5</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F93" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="J93" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="K93" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="M93" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="N93" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="O93" s="28" t="s">
         <v>381</v>
-      </c>
-      <c r="G93" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="J93" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="K93" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="L93" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="M93" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="N93" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="O93" s="28" t="s">
-        <v>392</v>
       </c>
       <c r="P93" s="9" t="s">
         <v>2</v>
@@ -8175,7 +8149,7 @@
         <v>259</v>
       </c>
       <c r="U93" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -8183,61 +8157,61 @@
         <v>6</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D94" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="J94" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="E94" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G94" s="28" t="s">
+      <c r="K94" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="L94" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="M94" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="N94" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="O94" s="28" t="s">
         <v>382</v>
-      </c>
-      <c r="H94" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="J94" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K94" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="L94" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="M94" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="N94" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="O94" s="28" t="s">
-        <v>393</v>
       </c>
       <c r="P94" s="9" t="s">
         <v>144</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="R94" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="T94" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="U94" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -8251,7 +8225,7 @@
         <v>146</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>146</v>
@@ -8263,16 +8237,16 @@
         <v>146</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J95" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="L95" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M95" s="10" t="s">
         <v>33</v>
@@ -8299,7 +8273,7 @@
         <v>258</v>
       </c>
       <c r="U95" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -8332,10 +8306,10 @@
     </row>
     <row r="98" spans="1:14" s="5" customFormat="1">
       <c r="A98" s="65" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B98" s="64" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D98" s="33"/>
     </row>
@@ -8347,16 +8321,16 @@
         <v>5</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H99" s="48" t="s">
         <v>226</v>
@@ -8377,7 +8351,7 @@
         <v>259</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -8385,40 +8359,40 @@
         <v>6</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H100" s="67" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -8441,7 +8415,7 @@
         <v>146</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>146</v>
@@ -8459,7 +8433,7 @@
         <v>258</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -8498,24 +8472,24 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="13" width="15.125" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="13" width="15.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="15.375" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8523,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -8531,10 +8505,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
@@ -8542,15 +8516,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
@@ -8562,13 +8536,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8576,10 +8550,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8587,7 +8561,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>7</v>
@@ -8609,7 +8583,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D11" s="68">
         <v>1</v>
@@ -8625,7 +8599,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -8663,7 +8637,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>22</v>
@@ -8674,7 +8648,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>24</v>
@@ -8698,7 +8672,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>31</v>
@@ -8762,7 +8736,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>4</v>
@@ -8779,54 +8753,54 @@
         <v>40</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="B23" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -8849,10 +8823,10 @@
         <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>32</v>
@@ -8884,7 +8858,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>4</v>
@@ -8913,7 +8887,7 @@
         <v>51</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>52</v>
@@ -9065,7 +9039,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -9118,7 +9092,7 @@
         <v>93</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -9168,10 +9142,10 @@
         <v>105</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9224,7 +9198,7 @@
         <v>110</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -9259,7 +9233,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -9382,7 +9356,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -9480,28 +9454,28 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="21.375" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
